--- a/ooooo/余量.1.26.ss.处理2点以前极速贷和9点以前360,11点之前借贷..xlsx
+++ b/ooooo/余量.1.26.ss.处理2点以前极速贷和9点以前360,11点之前借贷..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workroom\send_data\ooooo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E8CC4-E679-4E09-A03E-59A1D14EA9B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F53E74-E9D8-4272-89F5-207576156E80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22330" windowHeight="12490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18940" yWindow="5540" windowWidth="18200" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
   <sheetPr codeName="sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A120" sqref="A1:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="A1561" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
